--- a/Results_Collection/ResNet34 pretrained results/RDM_Evaluation_Results/R2_squared_linear_regression/R² and noise ceilling results.xlsx
+++ b/Results_Collection/ResNet34 pretrained results/RDM_Evaluation_Results/R2_squared_linear_regression/R² and noise ceilling results.xlsx
@@ -1,20 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali\PycharmProjects\untitled2\Numerosity-in-Neural-Networks\Results_Collection\ResNet34 pretrained results\RDM_Evaluation_Results\R2_squared_linear_regression\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC3AA27-F1C1-4E68-A146-C31EC46883F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="23">
   <si>
     <t>ROI</t>
   </si>
@@ -80,13 +97,16 @@
   </si>
   <si>
     <t>fc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVG NC </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,15 +165,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -195,7 +223,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -227,9 +255,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -261,6 +307,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -436,14 +500,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,7 +532,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -474,22 +540,22 @@
         <v>17</v>
       </c>
       <c r="C2">
-        <v>0.1442965101070053</v>
+        <v>0.14429651010700531</v>
       </c>
       <c r="D2">
-        <v>46.15257835061007</v>
+        <v>46.152578350610071</v>
       </c>
       <c r="E2">
-        <v>1.513407369492275E-05</v>
+        <v>1.5134073694922749E-5</v>
       </c>
       <c r="F2">
-        <v>0.3126510267981549</v>
+        <v>0.31265102679815487</v>
       </c>
       <c r="G2">
-        <v>0.3647503307910703</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.36475033079107028</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -497,22 +563,22 @@
         <v>18</v>
       </c>
       <c r="C3">
-        <v>0.2263891567988595</v>
+        <v>0.22638915679885949</v>
       </c>
       <c r="D3">
-        <v>72.40953567858091</v>
+        <v>72.409535678580909</v>
       </c>
       <c r="E3">
-        <v>7.161697517819417E-06</v>
+        <v>7.1616975178194169E-6</v>
       </c>
       <c r="F3">
-        <v>0.3126510267981549</v>
+        <v>0.31265102679815487</v>
       </c>
       <c r="G3">
-        <v>0.3647503307910703</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.36475033079107028</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -520,22 +586,22 @@
         <v>19</v>
       </c>
       <c r="C4">
-        <v>0.2227805870935632</v>
+        <v>0.22278058709356319</v>
       </c>
       <c r="D4">
-        <v>71.25535117381484</v>
+        <v>71.255351173814844</v>
       </c>
       <c r="E4">
-        <v>9.252690023782544E-06</v>
+        <v>9.2526900237825435E-6</v>
       </c>
       <c r="F4">
-        <v>0.3126510267981549</v>
+        <v>0.31265102679815487</v>
       </c>
       <c r="G4">
-        <v>0.3647503307910703</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.36475033079107028</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -546,19 +612,19 @@
         <v>0.210444244454704</v>
       </c>
       <c r="D5">
-        <v>67.30962844096628</v>
+        <v>67.309628440966279</v>
       </c>
       <c r="E5">
-        <v>3.472073966738146E-06</v>
+        <v>3.472073966738146E-6</v>
       </c>
       <c r="F5">
-        <v>0.3126510267981549</v>
+        <v>0.31265102679815487</v>
       </c>
       <c r="G5">
-        <v>0.3647503307910703</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>0.36475033079107028</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -569,19 +635,19 @@
         <v>0.1981186396124118</v>
       </c>
       <c r="D6">
-        <v>63.36734014320563</v>
+        <v>63.367340143205631</v>
       </c>
       <c r="E6">
-        <v>3.363608285945295E-06</v>
+        <v>3.3636082859452949E-6</v>
       </c>
       <c r="F6">
-        <v>0.3126510267981549</v>
+        <v>0.31265102679815487</v>
       </c>
       <c r="G6">
-        <v>0.3647503307910703</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.36475033079107028</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -592,19 +658,19 @@
         <v>0.1473830430119944</v>
       </c>
       <c r="D7">
-        <v>39.18450205111917</v>
+        <v>39.184502051119168</v>
       </c>
       <c r="E7">
-        <v>4.395727064550819E-06</v>
+        <v>4.3957270645508188E-6</v>
       </c>
       <c r="F7">
-        <v>0.3761258540933402</v>
+        <v>0.37612585409334021</v>
       </c>
       <c r="G7">
-        <v>0.4233388076771707</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.42333880767717069</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -612,22 +678,22 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>0.258640882443524</v>
+        <v>0.25864088244352401</v>
       </c>
       <c r="D8">
-        <v>68.76445201220841</v>
+        <v>68.764452012208409</v>
       </c>
       <c r="E8">
-        <v>2.269189417752721E-06</v>
+        <v>2.2691894177527212E-6</v>
       </c>
       <c r="F8">
-        <v>0.3761258540933402</v>
+        <v>0.37612585409334021</v>
       </c>
       <c r="G8">
-        <v>0.4233388076771707</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.42333880767717069</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -635,22 +701,22 @@
         <v>19</v>
       </c>
       <c r="C9">
-        <v>0.2763517860852275</v>
+        <v>0.27635178608522748</v>
       </c>
       <c r="D9">
-        <v>73.47322261357961</v>
+        <v>73.473222613579608</v>
       </c>
       <c r="E9">
-        <v>3.595303531693557E-06</v>
+        <v>3.5953035316935568E-6</v>
       </c>
       <c r="F9">
-        <v>0.3761258540933402</v>
+        <v>0.37612585409334021</v>
       </c>
       <c r="G9">
-        <v>0.4233388076771707</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.42333880767717069</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -661,19 +727,19 @@
         <v>0.2455172672849551</v>
       </c>
       <c r="D10">
-        <v>65.27529671598353</v>
+        <v>65.275296715983529</v>
       </c>
       <c r="E10">
-        <v>3.531454582264645E-07</v>
+        <v>3.5314545822646453E-7</v>
       </c>
       <c r="F10">
-        <v>0.3761258540933402</v>
+        <v>0.37612585409334021</v>
       </c>
       <c r="G10">
-        <v>0.4233388076771707</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.42333880767717069</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -681,22 +747,22 @@
         <v>21</v>
       </c>
       <c r="C11">
-        <v>0.2479584445903028</v>
+        <v>0.24795844459030281</v>
       </c>
       <c r="D11">
-        <v>65.92432875639781</v>
+        <v>65.924328756397813</v>
       </c>
       <c r="E11">
-        <v>2.725551737987741E-07</v>
+        <v>2.7255517379877411E-7</v>
       </c>
       <c r="F11">
-        <v>0.3761258540933402</v>
+        <v>0.37612585409334021</v>
       </c>
       <c r="G11">
-        <v>0.4233388076771707</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.42333880767717069</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -707,19 +773,19 @@
         <v>0.1111218688345484</v>
       </c>
       <c r="D12">
-        <v>36.55181529489015</v>
+        <v>36.551815294890147</v>
       </c>
       <c r="E12">
-        <v>6.208187763862313E-06</v>
+        <v>6.2081877638623133E-6</v>
       </c>
       <c r="F12">
-        <v>0.3040119018386562</v>
+        <v>0.30401190183865617</v>
       </c>
       <c r="G12">
-        <v>0.3593122356878429</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.35931223568784287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -727,22 +793,22 @@
         <v>18</v>
       </c>
       <c r="C13">
-        <v>0.2072970347086062</v>
+        <v>0.20729703470860619</v>
       </c>
       <c r="D13">
-        <v>68.18714446864713</v>
+        <v>68.187144468647134</v>
       </c>
       <c r="E13">
-        <v>5.145705547672682E-06</v>
+        <v>5.1457055476726818E-6</v>
       </c>
       <c r="F13">
-        <v>0.3040119018386562</v>
+        <v>0.30401190183865617</v>
       </c>
       <c r="G13">
-        <v>0.3593122356878429</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.35931223568784287</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -750,22 +816,22 @@
         <v>19</v>
       </c>
       <c r="C14">
-        <v>0.2316467577690016</v>
+        <v>0.23164675776900159</v>
       </c>
       <c r="D14">
-        <v>76.19660821435214</v>
+        <v>76.196608214352139</v>
       </c>
       <c r="E14">
-        <v>1.290720729774851E-05</v>
+        <v>1.290720729774851E-5</v>
       </c>
       <c r="F14">
-        <v>0.3040119018386562</v>
+        <v>0.30401190183865617</v>
       </c>
       <c r="G14">
-        <v>0.3593122356878429</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.35931223568784287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -779,16 +845,16 @@
         <v>66.62773740249574</v>
       </c>
       <c r="E15">
-        <v>1.09206496126296E-06</v>
+        <v>1.0920649612629601E-6</v>
       </c>
       <c r="F15">
-        <v>0.3040119018386562</v>
+        <v>0.30401190183865617</v>
       </c>
       <c r="G15">
-        <v>0.3593122356878429</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.35931223568784287</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -796,22 +862,22 @@
         <v>21</v>
       </c>
       <c r="C16">
-        <v>0.2014651849564303</v>
+        <v>0.20146518495643029</v>
       </c>
       <c r="D16">
-        <v>66.26884794245687</v>
+        <v>66.268847942456873</v>
       </c>
       <c r="E16">
-        <v>2.586263653066568E-06</v>
+        <v>2.5862636530665682E-6</v>
       </c>
       <c r="F16">
-        <v>0.3040119018386562</v>
+        <v>0.30401190183865617</v>
       </c>
       <c r="G16">
-        <v>0.3593122356878429</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.35931223568784287</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -819,22 +885,22 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>0.0410478058855787</v>
+        <v>4.10478058855787E-2</v>
       </c>
       <c r="D17">
         <v>46.39861640488693</v>
       </c>
       <c r="E17">
-        <v>0.001178649577378159</v>
+        <v>1.1786495773781591E-3</v>
       </c>
       <c r="F17">
-        <v>0.08846773689841179</v>
+        <v>8.8467736898411795E-2</v>
       </c>
       <c r="G17">
-        <v>0.1583347820766693</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>0.15833478207666929</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -842,22 +908,22 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>0.07770135723229163</v>
+        <v>7.7701357232291629E-2</v>
       </c>
       <c r="D18">
-        <v>87.83016267446371</v>
+        <v>87.830162674463708</v>
       </c>
       <c r="E18">
-        <v>0.0003995288557620097</v>
+        <v>3.9952885576200972E-4</v>
       </c>
       <c r="F18">
-        <v>0.08846773689841179</v>
+        <v>8.8467736898411795E-2</v>
       </c>
       <c r="G18">
-        <v>0.1583347820766693</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>0.15833478207666929</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -865,22 +931,22 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>0.08687550802696278</v>
+        <v>8.6875508026962783E-2</v>
       </c>
       <c r="D19">
-        <v>98.20021521147603</v>
+        <v>98.200215211476035</v>
       </c>
       <c r="E19">
-        <v>0.0001774228685711342</v>
+        <v>1.774228685711342E-4</v>
       </c>
       <c r="F19">
-        <v>0.08846773689841179</v>
+        <v>8.8467736898411795E-2</v>
       </c>
       <c r="G19">
-        <v>0.1583347820766693</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.15833478207666929</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -888,22 +954,22 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>0.0814250794923467</v>
+        <v>8.1425079492346703E-2</v>
       </c>
       <c r="D20">
-        <v>92.03929290725247</v>
+        <v>92.039292907252474</v>
       </c>
       <c r="E20">
-        <v>0.0005067300035322822</v>
+        <v>5.0673000353228216E-4</v>
       </c>
       <c r="F20">
-        <v>0.08846773689841179</v>
+        <v>8.8467736898411795E-2</v>
       </c>
       <c r="G20">
-        <v>0.1583347820766693</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.15833478207666929</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -911,22 +977,22 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>0.0862266329967727</v>
+        <v>8.6226632996772704E-2</v>
       </c>
       <c r="D21">
-        <v>97.46675570076742</v>
+        <v>97.466755700767422</v>
       </c>
       <c r="E21">
-        <v>0.000973136149873185</v>
+        <v>9.7313614987318503E-4</v>
       </c>
       <c r="F21">
-        <v>0.08846773689841179</v>
+        <v>8.8467736898411795E-2</v>
       </c>
       <c r="G21">
-        <v>0.1583347820766693</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.15833478207666929</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -934,22 +1000,22 @@
         <v>17</v>
       </c>
       <c r="C22">
-        <v>0.02671902678147582</v>
+        <v>2.6719026781475821E-2</v>
       </c>
       <c r="D22">
-        <v>24.1793609006756</v>
+        <v>24.179360900675601</v>
       </c>
       <c r="E22">
-        <v>0.001036208802808352</v>
+        <v>1.036208802808352E-3</v>
       </c>
       <c r="F22">
         <v>0.1105034450299688</v>
       </c>
       <c r="G22">
-        <v>0.1777992259950008</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.17779922599500081</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -957,22 +1023,22 @@
         <v>18</v>
       </c>
       <c r="C23">
-        <v>0.04706752852039502</v>
+        <v>4.7067528520395023E-2</v>
       </c>
       <c r="D23">
-        <v>42.59372050132031</v>
+        <v>42.593720501320313</v>
       </c>
       <c r="E23">
-        <v>0.0005734692411897604</v>
+        <v>5.7346924118976039E-4</v>
       </c>
       <c r="F23">
         <v>0.1105034450299688</v>
       </c>
       <c r="G23">
-        <v>0.1777992259950008</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.17779922599500081</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -980,22 +1046,22 @@
         <v>19</v>
       </c>
       <c r="C24">
-        <v>0.04447810703931919</v>
+        <v>4.447810703931919E-2</v>
       </c>
       <c r="D24">
-        <v>40.25042570144002</v>
+        <v>40.250425701440022</v>
       </c>
       <c r="E24">
-        <v>0.001088233537945445</v>
+        <v>1.088233537945445E-3</v>
       </c>
       <c r="F24">
         <v>0.1105034450299688</v>
       </c>
       <c r="G24">
-        <v>0.1777992259950008</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.17779922599500081</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -1003,22 +1069,22 @@
         <v>20</v>
       </c>
       <c r="C25">
-        <v>0.06277975186904913</v>
+        <v>6.2779751869049133E-2</v>
       </c>
       <c r="D25">
-        <v>56.81248385697219</v>
+        <v>56.812483856972193</v>
       </c>
       <c r="E25">
-        <v>0.0002106445207445935</v>
+        <v>2.1064452074459351E-4</v>
       </c>
       <c r="F25">
         <v>0.1105034450299688</v>
       </c>
       <c r="G25">
-        <v>0.1777992259950008</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.17779922599500081</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -1026,22 +1092,22 @@
         <v>21</v>
       </c>
       <c r="C26">
-        <v>0.08216920535940445</v>
+        <v>8.2169205359404446E-2</v>
       </c>
       <c r="D26">
-        <v>74.35895354857035</v>
+        <v>74.358953548570355</v>
       </c>
       <c r="E26">
-        <v>0.0004070268662494106</v>
+        <v>4.0702686624941058E-4</v>
       </c>
       <c r="F26">
         <v>0.1105034450299688</v>
       </c>
       <c r="G26">
-        <v>0.1777992259950008</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.17779922599500081</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -1049,22 +1115,22 @@
         <v>17</v>
       </c>
       <c r="C27">
-        <v>0.03062635596836515</v>
+        <v>3.0626355968365149E-2</v>
       </c>
       <c r="D27">
         <v>21.88761857097882</v>
       </c>
       <c r="E27">
-        <v>0.0004210470678458109</v>
+        <v>4.2104706784581091E-4</v>
       </c>
       <c r="F27">
         <v>0.1399254828434062</v>
       </c>
       <c r="G27">
-        <v>0.2047041660059261</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.20470416600592611</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1072,22 +1138,22 @@
         <v>18</v>
       </c>
       <c r="C28">
-        <v>0.04853728846281015</v>
+        <v>4.8537288462810149E-2</v>
       </c>
       <c r="D28">
-        <v>34.68795495751789</v>
+        <v>34.687954957517888</v>
       </c>
       <c r="E28">
-        <v>0.0001588349280836393</v>
+        <v>1.588349280836393E-4</v>
       </c>
       <c r="F28">
         <v>0.1399254828434062</v>
       </c>
       <c r="G28">
-        <v>0.2047041660059261</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.20470416600592611</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -1095,22 +1161,22 @@
         <v>19</v>
       </c>
       <c r="C29">
-        <v>0.03797838940019222</v>
+        <v>3.7978389400192221E-2</v>
       </c>
       <c r="D29">
-        <v>27.14186767730843</v>
+        <v>27.141867677308429</v>
       </c>
       <c r="E29">
-        <v>8.436533904738448E-05</v>
+        <v>8.4365339047384484E-5</v>
       </c>
       <c r="F29">
         <v>0.1399254828434062</v>
       </c>
       <c r="G29">
-        <v>0.2047041660059261</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.20470416600592611</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -1118,22 +1184,22 @@
         <v>20</v>
       </c>
       <c r="C30">
-        <v>0.07251493930879685</v>
+        <v>7.251493930879685E-2</v>
       </c>
       <c r="D30">
-        <v>51.82396932655219</v>
+        <v>51.823969326552188</v>
       </c>
       <c r="E30">
-        <v>0.0006442928277602388</v>
+        <v>6.442928277602388E-4</v>
       </c>
       <c r="F30">
         <v>0.1399254828434062</v>
       </c>
       <c r="G30">
-        <v>0.2047041660059261</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.20470416600592611</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -1141,22 +1207,22 @@
         <v>21</v>
       </c>
       <c r="C31">
-        <v>0.09944864418196606</v>
+        <v>9.9448644181966056E-2</v>
       </c>
       <c r="D31">
-        <v>71.07257531729321</v>
+        <v>71.072575317293214</v>
       </c>
       <c r="E31">
-        <v>0.001930379519682271</v>
+        <v>1.930379519682271E-3</v>
       </c>
       <c r="F31">
         <v>0.1399254828434062</v>
       </c>
       <c r="G31">
-        <v>0.2047041660059261</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.20470416600592611</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -1164,22 +1230,22 @@
         <v>17</v>
       </c>
       <c r="C32">
-        <v>0.02159467246389381</v>
+        <v>2.1594672463893811E-2</v>
       </c>
       <c r="D32">
-        <v>20.51862362066529</v>
+        <v>20.518623620665291</v>
       </c>
       <c r="E32">
-        <v>0.003617063583151325</v>
+        <v>3.6170635831513252E-3</v>
       </c>
       <c r="F32">
         <v>0.1052442545032347</v>
       </c>
       <c r="G32">
-        <v>0.1699154818133214</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.16991548181332139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -1187,22 +1253,22 @@
         <v>18</v>
       </c>
       <c r="C33">
-        <v>0.03120760543202487</v>
+        <v>3.120760543202487E-2</v>
       </c>
       <c r="D33">
-        <v>29.65255023120117</v>
+        <v>29.652550231201172</v>
       </c>
       <c r="E33">
-        <v>0.002059053944336928</v>
+        <v>2.059053944336928E-3</v>
       </c>
       <c r="F33">
         <v>0.1052442545032347</v>
       </c>
       <c r="G33">
-        <v>0.1699154818133214</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.16991548181332139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -1210,22 +1276,22 @@
         <v>19</v>
       </c>
       <c r="C34">
-        <v>0.02262898718734305</v>
+        <v>2.2628987187343051E-2</v>
       </c>
       <c r="D34">
-        <v>21.50139909694314</v>
+        <v>21.501399096943139</v>
       </c>
       <c r="E34">
-        <v>0.001441780148032458</v>
+        <v>1.441780148032458E-3</v>
       </c>
       <c r="F34">
         <v>0.1052442545032347</v>
       </c>
       <c r="G34">
-        <v>0.1699154818133214</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.16991548181332139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -1233,22 +1299,25 @@
         <v>20</v>
       </c>
       <c r="C35">
-        <v>0.04931485007430142</v>
+        <v>4.931485007430142E-2</v>
       </c>
       <c r="D35">
-        <v>46.85752234843918</v>
+        <v>46.857522348439183</v>
       </c>
       <c r="E35">
-        <v>0.003134831648735139</v>
+        <v>3.1348316487351392E-3</v>
       </c>
       <c r="F35">
         <v>0.1052442545032347</v>
       </c>
       <c r="G35">
-        <v>0.1699154818133214</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.16991548181332139</v>
+      </c>
+      <c r="I35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -1256,22 +1325,26 @@
         <v>21</v>
       </c>
       <c r="C36">
-        <v>0.06890338603084881</v>
+        <v>6.8903386030848807E-2</v>
       </c>
       <c r="D36">
-        <v>65.46997397252792</v>
+        <v>65.469973972527924</v>
       </c>
       <c r="E36">
-        <v>0.005228507292687929</v>
+        <v>5.2285072926879289E-3</v>
       </c>
       <c r="F36">
         <v>0.1052442545032347</v>
       </c>
       <c r="G36">
-        <v>0.1699154818133214</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.16991548181332139</v>
+      </c>
+      <c r="I36">
+        <f>SUM(D37:D41) /5</f>
+        <v>62.403843593782049</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -1279,22 +1352,22 @@
         <v>17</v>
       </c>
       <c r="C37">
-        <v>0.1512696805722281</v>
+        <v>0.15126968057222809</v>
       </c>
       <c r="D37">
         <v>39.35528200839147</v>
       </c>
       <c r="E37">
-        <v>2.981828623656423E-06</v>
+        <v>2.9818286236564232E-6</v>
       </c>
       <c r="F37">
-        <v>0.3843694489089771</v>
+        <v>0.38436944890897712</v>
       </c>
       <c r="G37">
-        <v>0.431256238071674</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>0.43125623807167401</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -1302,22 +1375,22 @@
         <v>18</v>
       </c>
       <c r="C38">
-        <v>0.2626334614490474</v>
+        <v>0.26263346144904742</v>
       </c>
       <c r="D38">
         <v>68.32839139388571</v>
       </c>
       <c r="E38">
-        <v>1.794345037331685E-06</v>
+        <v>1.7943450373316851E-6</v>
       </c>
       <c r="F38">
-        <v>0.3843694489089771</v>
+        <v>0.38436944890897712</v>
       </c>
       <c r="G38">
-        <v>0.431256238071674</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.43125623807167401</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -1325,22 +1398,22 @@
         <v>19</v>
       </c>
       <c r="C39">
-        <v>0.2757370427162527</v>
+        <v>0.27573704271625271</v>
       </c>
       <c r="D39">
-        <v>71.73750242089356</v>
+        <v>71.737502420893563</v>
       </c>
       <c r="E39">
-        <v>3.3279368344172E-06</v>
+        <v>3.3279368344172001E-6</v>
       </c>
       <c r="F39">
-        <v>0.3843694489089771</v>
+        <v>0.38436944890897712</v>
       </c>
       <c r="G39">
-        <v>0.431256238071674</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.43125623807167401</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>14</v>
       </c>
@@ -1348,22 +1421,22 @@
         <v>20</v>
       </c>
       <c r="C40">
-        <v>0.2542341319565288</v>
+        <v>0.25423413195652877</v>
       </c>
       <c r="D40">
-        <v>66.14316842250756</v>
+        <v>66.143168422507557</v>
       </c>
       <c r="E40">
-        <v>3.55655465158358E-07</v>
+        <v>3.5565546515835801E-7</v>
       </c>
       <c r="F40">
-        <v>0.3843694489089771</v>
+        <v>0.38436944890897712</v>
       </c>
       <c r="G40">
-        <v>0.431256238071674</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.43125623807167401</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>14</v>
       </c>
@@ -1371,22 +1444,22 @@
         <v>21</v>
       </c>
       <c r="C41">
-        <v>0.2554322319031432</v>
+        <v>0.25543223190314318</v>
       </c>
       <c r="D41">
-        <v>66.45487372323194</v>
+        <v>66.454873723231941</v>
       </c>
       <c r="E41">
-        <v>3.244204096111415E-07</v>
+        <v>3.2442040961114151E-7</v>
       </c>
       <c r="F41">
-        <v>0.3843694489089771</v>
+        <v>0.38436944890897712</v>
       </c>
       <c r="G41">
-        <v>0.431256238071674</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.43125623807167401</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -1394,22 +1467,25 @@
         <v>17</v>
       </c>
       <c r="C42">
-        <v>0.0390451032164569</v>
+        <v>3.9045103216456899E-2</v>
       </c>
       <c r="D42">
         <v>29.52576620648416</v>
       </c>
       <c r="E42">
-        <v>0.0002415809727160256</v>
+        <v>2.4158097271602559E-4</v>
       </c>
       <c r="F42">
-        <v>0.1322407789298359</v>
+        <v>0.13224077892983591</v>
       </c>
       <c r="G42">
         <v>0.2010336813249024</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="I42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -1417,22 +1493,26 @@
         <v>18</v>
       </c>
       <c r="C43">
-        <v>0.07266244227186278</v>
+        <v>7.2662442271862776E-2</v>
       </c>
       <c r="D43">
-        <v>54.94707673373274</v>
+        <v>54.947076733732743</v>
       </c>
       <c r="E43">
-        <v>4.678493249878467E-05</v>
+        <v>4.6784932498784669E-5</v>
       </c>
       <c r="F43">
-        <v>0.1322407789298359</v>
+        <v>0.13224077892983591</v>
       </c>
       <c r="G43">
         <v>0.2010336813249024</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="I43">
+        <f>SUM(D42:D46) /5</f>
+        <v>58.153510003568428</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -1440,22 +1520,22 @@
         <v>19</v>
       </c>
       <c r="C44">
-        <v>0.07484064726143988</v>
+        <v>7.484064726143988E-2</v>
       </c>
       <c r="D44">
-        <v>56.59422748950136</v>
+        <v>56.594227489501357</v>
       </c>
       <c r="E44">
-        <v>3.507526219734582E-05</v>
+        <v>3.5075262197345818E-5</v>
       </c>
       <c r="F44">
-        <v>0.1322407789298359</v>
+        <v>0.13224077892983591</v>
       </c>
       <c r="G44">
         <v>0.2010336813249024</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>15</v>
       </c>
@@ -1463,22 +1543,22 @@
         <v>20</v>
       </c>
       <c r="C45">
-        <v>0.08917705259432826</v>
+        <v>8.917705259432826E-2</v>
       </c>
       <c r="D45">
-        <v>67.43536548710418</v>
+        <v>67.435365487104178</v>
       </c>
       <c r="E45">
-        <v>2.874725647641816E-05</v>
+        <v>2.8747256476418162E-5</v>
       </c>
       <c r="F45">
-        <v>0.1322407789298359</v>
+        <v>0.13224077892983591</v>
       </c>
       <c r="G45">
         <v>0.2010336813249024</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>15</v>
       </c>
@@ -1489,19 +1569,22 @@
         <v>0.1087880276747067</v>
       </c>
       <c r="D46">
-        <v>82.26511410101971</v>
+        <v>82.265114101019705</v>
       </c>
       <c r="E46">
-        <v>8.059582822139595E-05</v>
+        <v>8.0595828221395949E-5</v>
       </c>
       <c r="F46">
-        <v>0.1322407789298359</v>
+        <v>0.13224077892983591</v>
       </c>
       <c r="G46">
         <v>0.2010336813249024</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="I46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>16</v>
       </c>
@@ -1509,22 +1592,26 @@
         <v>17</v>
       </c>
       <c r="C47">
-        <v>0.02823208783280081</v>
+        <v>2.823208783280081E-2</v>
       </c>
       <c r="D47">
-        <v>20.15047964348649</v>
+        <v>20.150479643486491</v>
       </c>
       <c r="E47">
-        <v>0.0007000427001873433</v>
+        <v>7.0004270018734333E-4</v>
       </c>
       <c r="F47">
-        <v>0.1401062819957571</v>
+        <v>0.14010628199575709</v>
       </c>
       <c r="G47">
-        <v>0.2045781121629859</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.20457811216298591</v>
+      </c>
+      <c r="I47">
+        <f>SUM(D47:D51) / 5</f>
+        <v>37.454487991814979</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>16</v>
       </c>
@@ -1532,22 +1619,22 @@
         <v>18</v>
       </c>
       <c r="C48">
-        <v>0.04327393606964475</v>
+        <v>4.3273936069644747E-2</v>
       </c>
       <c r="D48">
-        <v>30.88650662427487</v>
+        <v>30.886506624274869</v>
       </c>
       <c r="E48">
-        <v>0.0002844911478860438</v>
+        <v>2.8449114788604379E-4</v>
       </c>
       <c r="F48">
-        <v>0.1401062819957571</v>
+        <v>0.14010628199575709</v>
       </c>
       <c r="G48">
-        <v>0.2045781121629859</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.20457811216298591</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>16</v>
       </c>
@@ -1555,22 +1642,22 @@
         <v>19</v>
       </c>
       <c r="C49">
-        <v>0.03254556674168536</v>
+        <v>3.2545566741685357E-2</v>
       </c>
       <c r="D49">
-        <v>23.22919877544888</v>
+        <v>23.229198775448879</v>
       </c>
       <c r="E49">
-        <v>0.0001773928510589938</v>
+        <v>1.773928510589938E-4</v>
       </c>
       <c r="F49">
-        <v>0.1401062819957571</v>
+        <v>0.14010628199575709</v>
       </c>
       <c r="G49">
-        <v>0.2045781121629859</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.20457811216298591</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>16</v>
       </c>
@@ -1578,22 +1665,22 @@
         <v>20</v>
       </c>
       <c r="C50">
-        <v>0.06644060821480684</v>
+        <v>6.6440608214806837E-2</v>
       </c>
       <c r="D50">
         <v>47.42157686892218</v>
       </c>
       <c r="E50">
-        <v>0.0007227736124665042</v>
+        <v>7.2277361246650418E-4</v>
       </c>
       <c r="F50">
-        <v>0.1401062819957571</v>
+        <v>0.14010628199575709</v>
       </c>
       <c r="G50">
-        <v>0.2045781121629859</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.20457811216298591</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>16</v>
       </c>
@@ -1601,19 +1688,19 @@
         <v>21</v>
       </c>
       <c r="C51">
-        <v>0.09188825397045861</v>
+        <v>9.1888253970458605E-2</v>
       </c>
       <c r="D51">
-        <v>65.58467804694246</v>
+        <v>65.584678046942457</v>
       </c>
       <c r="E51">
-        <v>0.001747809751328404</v>
+        <v>1.7478097513284039E-3</v>
       </c>
       <c r="F51">
-        <v>0.1401062819957571</v>
+        <v>0.14010628199575709</v>
       </c>
       <c r="G51">
-        <v>0.2045781121629859</v>
+        <v>0.20457811216298591</v>
       </c>
     </row>
   </sheetData>
